--- a/www/ig/fhir/eclaire/eclaire-study-status-concept-map.xlsx
+++ b/www/ig/fhir/eclaire/eclaire-study-status-concept-map.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="52">
   <si>
     <t>Property</t>
   </si>
@@ -30,13 +30,13 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.0</t>
+    <t>0.2.0</t>
   </si>
   <si>
     <t>Name</t>
   </si>
   <si>
-    <t>FHIR-Eclaire-status-concept-map</t>
+    <t>FHIR_Eclaire_status_concept_map</t>
   </si>
   <si>
     <t>Title</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-07-28T16:03:24+00:00</t>
+    <t>2023-10-20T12:15:34+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -75,6 +75,12 @@
     <t>No display for ContactDetail</t>
   </si>
   <si>
+    <t>Jurisdiction</t>
+  </si>
+  <si>
+    <t>FRANCE</t>
+  </si>
+  <si>
     <t>Description</t>
   </si>
   <si>
@@ -96,7 +102,7 @@
     <t>Target</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/R4/valueset-research-study-status</t>
+    <t>http://hl7.org/fhir/ValueSet/research-study-status</t>
   </si>
   <si>
     <t>Display</t>
@@ -105,7 +111,13 @@
     <t>Relationship</t>
   </si>
   <si>
+    <t>eclaire-study-status-code-system</t>
+  </si>
+  <si>
     <t/>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/research-study-status</t>
   </si>
   <si>
     <t>a-demarrer</t>
@@ -290,7 +302,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B15"/>
+  <dimension ref="A1:B16"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -392,21 +404,21 @@
       <c r="A12" t="s" s="2">
         <v>22</v>
       </c>
-      <c r="B12" s="2"/>
+      <c r="B12" t="s" s="2">
+        <v>23</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B13" s="2"/>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>24</v>
-      </c>
-      <c r="B14" t="s" s="2">
         <v>25</v>
       </c>
+      <c r="B14" s="2"/>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
@@ -414,6 +426,14 @@
       </c>
       <c r="B15" t="s" s="2">
         <v>27</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s" s="2">
+        <v>28</v>
+      </c>
+      <c r="B16" t="s" s="2">
+        <v>29</v>
       </c>
     </row>
   </sheetData>
@@ -431,165 +451,165 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="1">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B1" t="s" s="1">
+        <v>30</v>
+      </c>
+      <c r="C1" t="s" s="1">
+        <v>31</v>
+      </c>
+      <c r="D1" t="s" s="1">
         <v>28</v>
       </c>
-      <c r="C1" t="s" s="1">
-        <v>29</v>
-      </c>
-      <c r="D1" t="s" s="1">
-        <v>26</v>
-      </c>
       <c r="E1" t="s" s="1">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="C2" t="s" s="2">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="D2" t="s" s="2">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="E2" t="s" s="2">
-        <v>30</v>
+        <v>33</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" t="s" s="2">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="D3" t="s" s="2">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="E3" s="2"/>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="B4" s="2"/>
       <c r="C4" t="s" s="2">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="D4" t="s" s="2">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="E4" s="2"/>
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="B5" s="2"/>
       <c r="C5" t="s" s="2">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="D5" t="s" s="2">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="E5" s="2"/>
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" t="s" s="2">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="D6" t="s" s="2">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="E6" s="2"/>
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="B7" s="2"/>
       <c r="C7" t="s" s="2">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="D7" t="s" s="2">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="E7" s="2"/>
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="B8" s="2"/>
       <c r="C8" t="s" s="2">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="D8" t="s" s="2">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="E8" s="2"/>
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="B9" s="2"/>
       <c r="C9" t="s" s="2">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="D9" t="s" s="2">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="E9" s="2"/>
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="B10" s="2"/>
       <c r="C10" t="s" s="2">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="D10" t="s" s="2">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="E10" s="2"/>
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="B11" s="2"/>
       <c r="C11" t="s" s="2">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="D11" t="s" s="2">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="E11" s="2"/>
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="B12" s="2"/>
       <c r="C12" t="s" s="2">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="D12" t="s" s="2">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="E12" s="2"/>
     </row>

--- a/www/ig/fhir/eclaire/eclaire-study-status-concept-map.xlsx
+++ b/www/ig/fhir/eclaire/eclaire-study-status-concept-map.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-10-20T12:15:34+00:00</t>
+    <t>2023-10-24T08:19:05+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/www/ig/fhir/eclaire/eclaire-study-status-concept-map.xlsx
+++ b/www/ig/fhir/eclaire/eclaire-study-status-concept-map.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.2.0</t>
+    <t>0.3.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-10-24T08:19:05+00:00</t>
+    <t>2024-02-26T13:35:44+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -290,10 +290,10 @@
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true" applyFont="true">
       <alignment vertical="top" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true" applyAlignment="true">
       <alignment vertical="top" wrapText="true"/>
     </xf>
   </cellXfs>
